--- a/자유수강권/아이로보(수강).xlsx
+++ b/자유수강권/아이로보(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="72">
   <si>
     <t>주야</t>
   </si>
@@ -163,6 +163,18 @@
     <t>나우진</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>이휘원</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>김준혁</t>
+  </si>
+  <si>
     <t>이원재</t>
   </si>
   <si>
@@ -179,9 +191,6 @@
   </si>
   <si>
     <t>박건우</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>이태건</t>
@@ -589,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1076,13 +1085,13 @@
         <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -1102,13 +1111,13 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
@@ -1125,13 +1134,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>53</v>
@@ -1151,13 +1160,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>54</v>
@@ -1177,16 +1186,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -1203,16 +1212,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1229,16 +1238,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1255,10 +1264,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>61</v>
@@ -1281,13 +1290,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>63</v>
@@ -1307,16 +1316,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -1333,24 +1342,76 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="13.5">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="13.5">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
